--- a/TestFile.xlsx
+++ b/TestFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA8C4B37-7B0E-4D3E-96A8-94A8D947FB00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D888EF03-8BD9-44C6-B69D-0ABE59B53B2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{1F047BEA-F592-4E3B-9EFC-6ED6E75E7AED}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>First Name</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Li</t>
+  </si>
+  <si>
+    <t>Jeffery</t>
+  </si>
+  <si>
+    <t>Chen</t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC201C45-3B26-4C39-943C-4B29B07AF442}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -467,6 +473,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
